--- a/biology/Médecine/Spermoculture/Spermoculture.xlsx
+++ b/biology/Médecine/Spermoculture/Spermoculture.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La spermoculture est un examen d'aide au diagnostic de certaines infections (induisant ou non à un problème de fertilité masculine).
 Elle accompagne ou suit généralement un spermogramme ou spermocytogramme qui sont des examens de première intention qui peuvent aussi être complétés d'examens visant à apprécier les fonctions fécondantes du spermatozoïde (Cf. capacités de pénétration de l’ovocyte), ou celles impliquées dans la mobilité nécessaire à la traversée des voies génitales féminines.
@@ -513,9 +525,11 @@
           <t>Protocole</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'hygiène doit être respectée avant et pendant le prélèvement, car la seule explication orale et claire des mesures d'hygiène nécessaires au prélèvement avant le prélèvement fait chuter les spermocultures positives à 13,5 % alors que ce taux est de 26,9 % quand les conseils n'ont été donnés que par écrit[1]
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'hygiène doit être respectée avant et pendant le prélèvement, car la seule explication orale et claire des mesures d'hygiène nécessaires au prélèvement avant le prélèvement fait chuter les spermocultures positives à 13,5 % alors que ce taux est de 26,9 % quand les conseils n'ont été donnés que par écrit
 Du sperme est prélevé après liquéfaction de l'échantillon et il sert à ensemencer différents milieux de culture :
 gélose au sang ;
 gélose lactosée ;
